--- a/biology/Zoologie/Astianax/Astianax.xlsx
+++ b/biology/Zoologie/Astianax/Astianax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Astyanax est un genre américain de poissons d'eau douce, saumâtre ou de mer de la famille des Characidae.
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astyanax jouissent d'une vaste répartition géographique qui s'étend à travers les eaux douces d'Amérique Latine, depuis le Sud du Texas aux États-Unis jusqu'en Argentine. Ces poissons sont omniprésents dans une multitude d'habitats aquatiques, incluant les petits ruisseaux, les grandes rivières, les lacs, et les étangs, démontrant une remarquable capacité d'adaptation aux différents environnements aquatiques. Leur présence est particulièrement notable dans le bassin de l'Amazone, le bassin du Paraná-Paraguay, ainsi que dans les systèmes fluviaux du Nord et du centre de l'Amérique du Sud. Cette large distribution géographique s'accompagne d'une grande diversité d'habitats, allant des eaux claires et rapides aux eaux stagnantes et turbides, ce qui souligne leur flexibilité écologique et leur capacité à prospérer dans diverses conditions environnementales. Cette adaptabilité explique en partie pourquoi les Astyanax sont si répandus et pourquoi ils constituent un choix populaire parmi les aquariophiles cherchant à reproduire un éventail d'habitats d'eau douce dans leurs aquariums.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astyanax sont des poissons d'eau douce de la famille des Characidae, largement répandus dans les environnements aquatiques d'Amérique du Sud et centrale. Ils sont caractérisés par leur corps fusiforme et robuste, adapté à une vie active dans une variété de courants d'eau. Leur taille peut varier considérablement d'une espèce à l'autre, allant de quelques centimètres à plus de 15 cm pour les plus grandes espèces. Leur coloration est également variable, allant du translucide avec des reflets métalliques à des teintes plus sombres, souvent agrémentées de marques distinctives comme des lignes latérales ou des taches. Les nageoires sont proportionnellement ajustées à leur corps, permettant une nage rapide et agile, ce qui est typique pour les membres de ce genre. Ces poissons sont également connus pour leur capacité à s'adapter à différents environnements, ce qui en fait des résidents populaires dans les aquariums. En captivité, leur comportement actif et leur facilité de soins les rendent attrayants pour de nombreux aquariophiles. Leurs besoins diététiques omnivores leur permettent de consommer une large gamme d'aliments, allant des préparations commerciales aux petites proies vivantes ou congelées.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (18 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (18 avril 2024) :
 Astyanax abramis (Jenyns, 1842)
 Astyanax acatlanensis Schmitter-Soto, 2017
 Astyanax aeneus (Günther, 1860)
@@ -708,18 +726,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comportement
-Les Astyanax sont reconnus pour leur comportement social et actif, faisant d'eux des résidents dynamiques et engageants dans les aquariums d'eau douce. En milieu naturel comme en captivité, ils tendent à former des bancs, une stratégie qui leur sert à se protéger des prédateurs et à augmenter l'efficacité de la recherche de nourriture. Cette tendance grégaire renforce non seulement leurs chances de survie, mais contribue également à un spectacle visuellement attrayant pour les observateurs. Les Astyanax sont généralement paisibles avec d'autres espèces de poissons, pourvu que ces derniers ne soient pas suffisamment petits pour être considérés comme proie. Toutefois, leur nature active requiert un espace suffisant pour nager librement, ainsi qu'une configuration d'aquarium qui imite leur habitat naturel avec des zones de plantation dense et des espaces ouverts pour la nage. Ils sont curieux et exploreront volontiers leur environnement, ce qui nécessite une attention particulière à la sécurisation de l'aquarium pour prévenir les évasions accidentelles. Le comportement des Astyanax peut légèrement varier d'une espèce à l'autre au sein du genre, mais leur nature sociable et adaptable est une constante qui les rend appréciés des aquariophiles.
-Alimentation
-Les Astyanax sont omnivores avec une tendance à consommer une grande variété d'aliments dans leur environnement naturel, ce qui inclut des plantes aquatiques, des algues, des petits invertébrés, et des détritus organiques. Cette diète variée leur permet de tirer profit d'un large spectre de ressources alimentaires disponibles dans leurs habitats divers. En captivité, ils s'adaptent bien à une gamme étendue d'options alimentaires, y compris des flocons, des granulés, et des aliments vivants ou congelés, tels que les larves de moustiques, les daphnies et les artémias, qui sont particulièrement bénéfiques pour maintenir leur santé et leur vitalité. Pour reproduire au mieux leur régime alimentaire naturel, il est conseillé d'offrir un mélange équilibré de composants végétaux et protéiniques. Un tel régime non seulement soutient leur système immunitaire et favorise une couleur vive, mais stimule également leur comportement naturel de recherche de nourriture, ajoutant un intérêt comportemental à l'observation de ces poissons en aquarium. Une attention particulière doit être accordée à la quantité de nourriture distribuée pour éviter la suralimentation et ses conséquences néfastes sur la qualité de l'eau et la santé des poissons.
-Reproduction
-La reproduction des Astyanax en milieu naturel et en captivité reflète souvent leur caractère prolifique et leur adaptabilité. Le frai a lieu en eaux libres, les œufs étant dans l'eau sans aucun soin apporté par les parents après la ponte. Les femelles pondent un grand nombre d'œufs, souvent sur des substrats variés comme la végétation aquatique, le fond de l'aquarium ou sur des surfaces préparées par les aquariophiles, telles que des mops de ponte ou des feuilles de plastique. En aquarium, stimuler la reproduction peut nécessiter des changements d'eau fréquents pour imiter la saison des pluies de leur habitat naturel, ainsi qu'une augmentation de la température de l'eau et une alimentation riche pour préparer les poissons à la ponte. Les œufs éclosent généralement après quelques jours, et les larves, très petites, nécessitent des aliments fins comme les infusoires, avant de pouvoir passer à des aliments plus gros. Bien que la reproduction des Astyanax puisse être simple en termes de procédure, réussir l'élevage des alevins jusqu'à l'âge adulte demande une attention particulière à la qualité de l'eau et à une alimentation appropriée pour soutenir leur croissance rapide.
-Maintenance
-La maintenance des Astyanax en captivité est relativement simple en raison de leur robustesse et de leur adaptabilité, ce qui en fait un choix idéal pour les aquariophiles débutants et expérimentés. Ces poissons préfèrent des conditions d'eau douce avec une température comprise entre 22 et 28 °C, un pH légèrement acide à neutre (environ 6,0 à 7,5), et une eau moyennement douce à moyennement dure. Un aquarium d'au moins 50 litres est recommandé pour permettre un espace de nage adéquat, surtout si on souhaite maintenir un petit banc, ce qui est conseillé pour leur bien-être social. La décoration doit inclure des zones plantées denses pour imiter leur habitat naturel, ainsi que des espaces ouverts pour la nage. Une filtration efficace est nécessaire pour maintenir une eau propre et bien oxygénée, mais le courant ne doit pas être trop fort pour éviter de stresser les poissons. Les changements réguliers d'eau, d'environ 20 à 30% hebdomadairement, contribuent à garder les paramètres de l'eau stables et à réduire les accumulations de déchets toxiques. En respectant ces conditions de base et en fournissant une alimentation variée et équilibrée, les Astyanax peuvent prospérer en captivité, offrant une expérience enrichissante à l'aquariophile.
-Élevage
-L'élevage des Astyanax en aquarium requiert une préparation et une attention dédiées pour assurer le succès de la reproduction et le développement sain des alevins. Avant la reproduction, il est conseillé de séparer les mâles et les femelles et de les conditionner avec des aliments riches en protéines pour augmenter le taux de succès de la ponte. Une fois prêts, les poissons peuvent être placés ensemble dans un aquarium de reproduction, idéalement équipé de substrats de ponte tels que des mops de ponte ou des feuilles de plantes, pour encourager le dépôt des œufs. Après la ponte, les parents doivent être retirés pour éviter la consommation des œufs ou des alevins. Les œufs éclosent généralement après quelques jours, et les alevins, extrêmement petits, nécessitent au début une alimentation avec des infusoires ou d'autres micro-aliments, avant de graduellement passer à des aliments plus gros comme les nauplies d'artémias. L'élevage réussi des Astyanax demande une gestion minutieuse de la qualité de l'eau, avec des changements fréquents et une filtration adéquate, pour soutenir la croissance rapide des alevins dans un environnement propre et stable. Ce processus, tout en étant exigeant, peut être extrêmement gratifiant en permettant d'observer le développement complet de ces poissons depuis l'œuf jusqu'à l'âge adulte.
-Espèces apparentées
-Les Astyanax partagent leur famille des Characidae avec un grand nombre d'espèces proches et variées, parmi lesquelles figurent des poissons populaires en aquariophilie tels que les tétras, les piranhas, et les pacus. Ce groupe est extrêmement diversifié, abritant des espèces allant de petits poissons paisibles à de plus grands prédateurs. Les tétras, en particulier, présentent des similitudes avec les Astyanax en termes de besoins environnementaux et de comportements, offrant ainsi une bonne indication des types de poissons pouvant cohabiter avec eux dans un aquarium. Parmi les genres étroitement liés, on trouve également Brycon, Hyphessobrycon et Hemigrammus, qui partagent des habitats similaires. Ces poissons tendent à avoir une morphologie similaire, avec des corps fusiformes adaptés à une vie active dans des courants variés, et présentent une gamme de comportements allant de grégaire à plus solitaire, selon l'espèce. La diversité au sein de cette famille illustre la richesse des adaptations écologiques parmi les poissons d'eau douce néotropicaux.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Astyanax sont reconnus pour leur comportement social et actif, faisant d'eux des résidents dynamiques et engageants dans les aquariums d'eau douce. En milieu naturel comme en captivité, ils tendent à former des bancs, une stratégie qui leur sert à se protéger des prédateurs et à augmenter l'efficacité de la recherche de nourriture. Cette tendance grégaire renforce non seulement leurs chances de survie, mais contribue également à un spectacle visuellement attrayant pour les observateurs. Les Astyanax sont généralement paisibles avec d'autres espèces de poissons, pourvu que ces derniers ne soient pas suffisamment petits pour être considérés comme proie. Toutefois, leur nature active requiert un espace suffisant pour nager librement, ainsi qu'une configuration d'aquarium qui imite leur habitat naturel avec des zones de plantation dense et des espaces ouverts pour la nage. Ils sont curieux et exploreront volontiers leur environnement, ce qui nécessite une attention particulière à la sécurisation de l'aquarium pour prévenir les évasions accidentelles. Le comportement des Astyanax peut légèrement varier d'une espèce à l'autre au sein du genre, mais leur nature sociable et adaptable est une constante qui les rend appréciés des aquariophiles.
 </t>
         </is>
       </c>
@@ -745,21 +758,277 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Astyanax sont omnivores avec une tendance à consommer une grande variété d'aliments dans leur environnement naturel, ce qui inclut des plantes aquatiques, des algues, des petits invertébrés, et des détritus organiques. Cette diète variée leur permet de tirer profit d'un large spectre de ressources alimentaires disponibles dans leurs habitats divers. En captivité, ils s'adaptent bien à une gamme étendue d'options alimentaires, y compris des flocons, des granulés, et des aliments vivants ou congelés, tels que les larves de moustiques, les daphnies et les artémias, qui sont particulièrement bénéfiques pour maintenir leur santé et leur vitalité. Pour reproduire au mieux leur régime alimentaire naturel, il est conseillé d'offrir un mélange équilibré de composants végétaux et protéiniques. Un tel régime non seulement soutient leur système immunitaire et favorise une couleur vive, mais stimule également leur comportement naturel de recherche de nourriture, ajoutant un intérêt comportemental à l'observation de ces poissons en aquarium. Une attention particulière doit être accordée à la quantité de nourriture distribuée pour éviter la suralimentation et ses conséquences néfastes sur la qualité de l'eau et la santé des poissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction des Astyanax en milieu naturel et en captivité reflète souvent leur caractère prolifique et leur adaptabilité. Le frai a lieu en eaux libres, les œufs étant dans l'eau sans aucun soin apporté par les parents après la ponte. Les femelles pondent un grand nombre d'œufs, souvent sur des substrats variés comme la végétation aquatique, le fond de l'aquarium ou sur des surfaces préparées par les aquariophiles, telles que des mops de ponte ou des feuilles de plastique. En aquarium, stimuler la reproduction peut nécessiter des changements d'eau fréquents pour imiter la saison des pluies de leur habitat naturel, ainsi qu'une augmentation de la température de l'eau et une alimentation riche pour préparer les poissons à la ponte. Les œufs éclosent généralement après quelques jours, et les larves, très petites, nécessitent des aliments fins comme les infusoires, avant de pouvoir passer à des aliments plus gros. Bien que la reproduction des Astyanax puisse être simple en termes de procédure, réussir l'élevage des alevins jusqu'à l'âge adulte demande une attention particulière à la qualité de l'eau et à une alimentation appropriée pour soutenir leur croissance rapide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maintenance des Astyanax en captivité est relativement simple en raison de leur robustesse et de leur adaptabilité, ce qui en fait un choix idéal pour les aquariophiles débutants et expérimentés. Ces poissons préfèrent des conditions d'eau douce avec une température comprise entre 22 et 28 °C, un pH légèrement acide à neutre (environ 6,0 à 7,5), et une eau moyennement douce à moyennement dure. Un aquarium d'au moins 50 litres est recommandé pour permettre un espace de nage adéquat, surtout si on souhaite maintenir un petit banc, ce qui est conseillé pour leur bien-être social. La décoration doit inclure des zones plantées denses pour imiter leur habitat naturel, ainsi que des espaces ouverts pour la nage. Une filtration efficace est nécessaire pour maintenir une eau propre et bien oxygénée, mais le courant ne doit pas être trop fort pour éviter de stresser les poissons. Les changements réguliers d'eau, d'environ 20 à 30% hebdomadairement, contribuent à garder les paramètres de l'eau stables et à réduire les accumulations de déchets toxiques. En respectant ces conditions de base et en fournissant une alimentation variée et équilibrée, les Astyanax peuvent prospérer en captivité, offrant une expérience enrichissante à l'aquariophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élevage des Astyanax en aquarium requiert une préparation et une attention dédiées pour assurer le succès de la reproduction et le développement sain des alevins. Avant la reproduction, il est conseillé de séparer les mâles et les femelles et de les conditionner avec des aliments riches en protéines pour augmenter le taux de succès de la ponte. Une fois prêts, les poissons peuvent être placés ensemble dans un aquarium de reproduction, idéalement équipé de substrats de ponte tels que des mops de ponte ou des feuilles de plantes, pour encourager le dépôt des œufs. Après la ponte, les parents doivent être retirés pour éviter la consommation des œufs ou des alevins. Les œufs éclosent généralement après quelques jours, et les alevins, extrêmement petits, nécessitent au début une alimentation avec des infusoires ou d'autres micro-aliments, avant de graduellement passer à des aliments plus gros comme les nauplies d'artémias. L'élevage réussi des Astyanax demande une gestion minutieuse de la qualité de l'eau, avec des changements fréquents et une filtration adéquate, pour soutenir la croissance rapide des alevins dans un environnement propre et stable. Ce processus, tout en étant exigeant, peut être extrêmement gratifiant en permettant d'observer le développement complet de ces poissons depuis l'œuf jusqu'à l'âge adulte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Espèces apparentées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Astyanax partagent leur famille des Characidae avec un grand nombre d'espèces proches et variées, parmi lesquelles figurent des poissons populaires en aquariophilie tels que les tétras, les piranhas, et les pacus. Ce groupe est extrêmement diversifié, abritant des espèces allant de petits poissons paisibles à de plus grands prédateurs. Les tétras, en particulier, présentent des similitudes avec les Astyanax en termes de besoins environnementaux et de comportements, offrant ainsi une bonne indication des types de poissons pouvant cohabiter avec eux dans un aquarium. Parmi les genres étroitement liés, on trouve également Brycon, Hyphessobrycon et Hemigrammus, qui partagent des habitats similaires. Ces poissons tendent à avoir une morphologie similaire, avec des corps fusiformes adaptés à une vie active dans des courants variés, et présentent une gamme de comportements allant de grégaire à plus solitaire, selon l'espèce. La diversité au sein de cette famille illustre la richesse des adaptations écologiques parmi les poissons d'eau douce néotropicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Astyanax Baird &amp; Girard, 1854[2].
-Astyanax a pour synonymes[2] :
-Anoptichthys Hubbs &amp; Innes, 1936[2]
-Astianax graphie incorrecte[2]
-Bertoniolus Fowler, 1918[2]
-Zygogaster Eigenmann, 1913[2]
-Étymologie
-Le nom générique, Astyanax, du grec ancien Ἀστυάναξ, Astuánax, « qui règne sur la ville », en rapport avec Astyanax, le guerrier de la mythologie grecque, n'a pas d'explication avérée mais pourrait faire référence aux larges écailles de l'espèce Astyanax argentatus pouvant évoquer une armure[3]. À noter que cette espèce est désormais considérée comme synonyme d’Astyanax mexicanus[2].
-Publication originale
-(en) S. F. Baird et C. F. Girard, « Descriptions of new species of fishes collected in Texas, New Mexico and Sonora, by Mr. John H. Clark, on the U. S. and Mexican Boundary Survey, and in Texas by Capt. Stewart Van Vliet, U. S. A. », Proceedings of the Academy of Natural Sciences of Philadelphia, 1854, vol. 7, p. 24-29 (lire en ligne)</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Astyanax Baird &amp; Girard, 1854.
+Astyanax a pour synonymes :
+Anoptichthys Hubbs &amp; Innes, 1936
+Astianax graphie incorrecte
+Bertoniolus Fowler, 1918
+Zygogaster Eigenmann, 1913</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Astyanax, du grec ancien Ἀστυάναξ, Astuánax, « qui règne sur la ville », en rapport avec Astyanax, le guerrier de la mythologie grecque, n'a pas d'explication avérée mais pourrait faire référence aux larges écailles de l'espèce Astyanax argentatus pouvant évoquer une armure. À noter que cette espèce est désormais considérée comme synonyme d’Astyanax mexicanus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Astianax</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astianax</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) S. F. Baird et C. F. Girard, « Descriptions of new species of fishes collected in Texas, New Mexico and Sonora, by Mr. John H. Clark, on the U. S. and Mexican Boundary Survey, and in Texas by Capt. Stewart Van Vliet, U. S. A. », Proceedings of the Academy of Natural Sciences of Philadelphia, 1854, vol. 7, p. 24-29 (lire en ligne)</t>
         </is>
       </c>
     </row>
